--- a/capiq_data/in_process_data/IQ22357184.xlsx
+++ b/capiq_data/in_process_data/IQ22357184.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361486CC-7596-4E27-97D2-6E2E11FFAF00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3930E14B-9F0D-44AF-AD48-43FBF1B3A909}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"0f078d74-89d9-44a5-b37f-232a893f599d"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"07112bbd-b8d9-4910-9dd7-0740a44cc778"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$69</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$69</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$69</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$69</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$69</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$69</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$69</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$69</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$69</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$69</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$69</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$69</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$69</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$69</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$69</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$69</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$69</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$69</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$69</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$69</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$69</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$69</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$69</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$69</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$69</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$69</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,87 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +814,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>38077</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>200.3</v>
+        <v>7.1550000000000002</v>
       </c>
       <c r="D2">
-        <v>1237.5999999999999</v>
+        <v>324.66399999999999</v>
       </c>
       <c r="E2">
-        <v>236.2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>483.9</v>
+        <v>33.582999999999998</v>
       </c>
       <c r="G2">
-        <v>1341.4</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8754</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>87.9</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1954.1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -769,81 +850,81 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-0.72899999999999998</v>
       </c>
       <c r="N2">
-        <v>948.6</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4320.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1959</v>
+        <v>293.50299999999999</v>
       </c>
       <c r="Q2">
-        <v>149.30000000000001</v>
+        <v>-45.006</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>38077</v>
       </c>
       <c r="S2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>4433.3999999999996</v>
+        <v>748.16700000000003</v>
       </c>
       <c r="U2">
-        <v>797.7</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>560.4</v>
+        <v>6.0730000000000004</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-305.2</v>
+        <v>-0.75600000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>15.6</v>
+        <v>-45.375</v>
       </c>
       <c r="AA2">
-        <v>200.3</v>
+        <v>7.1550000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>38168</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>282</v>
+        <v>28.16</v>
       </c>
       <c r="D3">
-        <v>1174</v>
+        <v>520.70100000000002</v>
       </c>
       <c r="E3">
-        <v>260.3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>525</v>
+        <v>67.308999999999997</v>
       </c>
       <c r="G3">
-        <v>1808.8</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>9189.9</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>327.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1613</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +933,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-346</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1383.9</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4398.3</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1618.1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>336.4</v>
+        <v>8.4250000000000007</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>38168</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4791.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1134.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>671.2</v>
+        <v>49.075000000000003</v>
       </c>
       <c r="W3">
-        <v>-7.1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-350.5</v>
+        <v>-7.7370000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.5</v>
+        <v>-23.673999999999999</v>
       </c>
       <c r="AA3">
-        <v>282</v>
+        <v>28.16</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>38260</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>487.4</v>
+        <v>14.302</v>
       </c>
       <c r="D4">
-        <v>1801.7</v>
+        <v>326.69400000000002</v>
       </c>
       <c r="E4">
-        <v>424.5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>867.4</v>
+        <v>43.912999999999997</v>
       </c>
       <c r="G4">
-        <v>2080.4</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>9420</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>336.9</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1613</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1019,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1094.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>4088.2</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1618.1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>221.5</v>
+        <v>28.196999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>38260</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>5331.8</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1355.6</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>250.9</v>
+        <v>205.108</v>
       </c>
       <c r="W4">
-        <v>-7.2</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-11.2</v>
+        <v>-10.728999999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>24.1</v>
+        <v>-155.02000000000001</v>
       </c>
       <c r="AA4">
-        <v>487.4</v>
+        <v>14.302</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>38352</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>330.9</v>
+        <v>18.082999999999998</v>
       </c>
       <c r="D5">
-        <v>1403.8</v>
+        <v>478.64100000000002</v>
       </c>
       <c r="E5">
-        <v>268.60000000000002</v>
+        <v>37.9</v>
       </c>
       <c r="F5">
-        <v>638</v>
+        <v>71.295000000000002</v>
       </c>
       <c r="G5">
-        <v>2057.9</v>
+        <v>798.5</v>
       </c>
       <c r="H5">
-        <v>9245.7999999999993</v>
+        <v>1556.7</v>
       </c>
       <c r="I5">
-        <v>429.6</v>
+        <v>67.7</v>
       </c>
       <c r="J5">
-        <v>1613</v>
+        <v>238.9</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1102,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1502.5</v>
+        <v>434.5</v>
       </c>
       <c r="O5">
-        <v>4496</v>
+        <v>756.6</v>
       </c>
       <c r="P5">
-        <v>1617.7</v>
+        <v>258.8</v>
       </c>
       <c r="Q5">
-        <v>70.5</v>
+        <v>-18.815999999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>38352</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="T5">
-        <v>4749.8</v>
+        <v>800.1</v>
       </c>
       <c r="U5">
-        <v>1426.1</v>
+        <v>50</v>
       </c>
       <c r="V5">
-        <v>1033</v>
+        <v>83.944000000000003</v>
       </c>
       <c r="W5">
-        <v>-28.3</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-917.5</v>
+        <v>-42.078000000000003</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>12.3</v>
+        <v>-51.530999999999999</v>
       </c>
       <c r="AA5">
-        <v>330.9</v>
+        <v>18.082999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>38442</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>438.9</v>
+        <v>22.3</v>
       </c>
       <c r="D6">
-        <v>1718.4</v>
+        <v>459.3</v>
       </c>
       <c r="E6">
-        <v>266.89999999999998</v>
+        <v>60.048999999999999</v>
       </c>
       <c r="F6">
-        <v>865.2</v>
+        <v>55.3</v>
       </c>
       <c r="G6">
-        <v>1798.6</v>
+        <v>840.22</v>
       </c>
       <c r="H6">
-        <v>8974.5</v>
+        <v>1576.922</v>
       </c>
       <c r="I6">
-        <v>99.5</v>
+        <v>162.94399999999999</v>
       </c>
       <c r="J6">
-        <v>1617.8</v>
+        <v>238.17500000000001</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1101,81 +1182,81 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="N6">
-        <v>1031.2</v>
+        <v>424.20100000000002</v>
       </c>
       <c r="O6">
-        <v>4041.6</v>
+        <v>746.00300000000004</v>
       </c>
       <c r="P6">
-        <v>1617.8</v>
+        <v>258.09199999999998</v>
       </c>
       <c r="Q6">
-        <v>-219.1</v>
+        <v>-7.9</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>38442</v>
       </c>
       <c r="S6">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="T6">
-        <v>4932.8999999999996</v>
+        <v>830.91899999999998</v>
       </c>
       <c r="U6">
-        <v>1207</v>
+        <v>42.14</v>
       </c>
       <c r="V6">
-        <v>123.8</v>
+        <v>63.9</v>
       </c>
       <c r="W6">
-        <v>-26.1</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-220.2</v>
+        <v>-0.7</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>-54.3</v>
       </c>
       <c r="AA6">
-        <v>438.9</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38533</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>368.4</v>
+        <v>42.9</v>
       </c>
       <c r="D7">
-        <v>1527.6</v>
+        <v>626.70000000000005</v>
       </c>
       <c r="E7">
-        <v>464.9</v>
+        <v>88.209000000000003</v>
       </c>
       <c r="F7">
-        <v>711.8</v>
+        <v>95.6</v>
       </c>
       <c r="G7">
-        <v>2458.4</v>
+        <v>792.346</v>
       </c>
       <c r="H7">
-        <v>9616.9</v>
+        <v>1500.8109999999999</v>
       </c>
       <c r="I7">
-        <v>303.10000000000002</v>
+        <v>152.38999999999999</v>
       </c>
       <c r="J7">
-        <v>1617.9</v>
+        <v>230.38800000000001</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1268,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1250.5</v>
+        <v>310.69799999999998</v>
       </c>
       <c r="O7">
-        <v>4256</v>
+        <v>622.89599999999996</v>
       </c>
       <c r="P7">
-        <v>1617.9</v>
+        <v>250.30500000000001</v>
       </c>
       <c r="Q7">
-        <v>506.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38533</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="T7">
-        <v>5360.9</v>
+        <v>877.91499999999996</v>
       </c>
       <c r="U7">
-        <v>1713.3</v>
+        <v>79.436000000000007</v>
       </c>
       <c r="V7">
-        <v>603.20000000000005</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="W7">
-        <v>-26.2</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-34.200000000000003</v>
+        <v>-7.8</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-7.3</v>
       </c>
       <c r="AA7">
-        <v>368.4</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>38625</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>606.29999999999995</v>
+        <v>-91.4</v>
       </c>
       <c r="D8">
-        <v>1735.6</v>
+        <v>359.4</v>
       </c>
       <c r="E8">
-        <v>360.2</v>
+        <v>57.16</v>
       </c>
       <c r="F8">
-        <v>1043.3</v>
+        <v>56</v>
       </c>
       <c r="G8">
-        <v>1996.7</v>
+        <v>687.65599999999995</v>
       </c>
       <c r="H8">
-        <v>9118.9</v>
+        <v>1337.85</v>
       </c>
       <c r="I8">
-        <v>320.39999999999998</v>
+        <v>170.363</v>
       </c>
       <c r="J8">
-        <v>1604.8</v>
+        <v>4.234</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,81 +1351,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>555.29999999999995</v>
+        <v>390.02699999999999</v>
       </c>
       <c r="O8">
-        <v>3618.7</v>
+        <v>496.05799999999999</v>
       </c>
       <c r="P8">
-        <v>1604.8</v>
+        <v>4.234</v>
       </c>
       <c r="Q8">
-        <v>-330.3</v>
+        <v>-39</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>38625</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>5500.2</v>
+        <v>841.79200000000003</v>
       </c>
       <c r="U8">
-        <v>1383</v>
+        <v>40.375999999999998</v>
       </c>
       <c r="V8">
-        <v>445.5</v>
+        <v>89.4</v>
       </c>
       <c r="W8">
-        <v>-26.1</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-703.6</v>
+        <v>-281</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>16</v>
+        <v>172.4</v>
       </c>
       <c r="AA8">
-        <v>606.29999999999995</v>
+        <v>-91.4</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>38717</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>403.3</v>
+        <v>-12.8</v>
       </c>
       <c r="D9">
-        <v>1359.4</v>
+        <v>463</v>
       </c>
       <c r="E9">
-        <v>340.9</v>
+        <v>48</v>
       </c>
       <c r="F9">
-        <v>702</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G9">
-        <v>3015.2</v>
+        <v>552.70000000000005</v>
       </c>
       <c r="H9">
-        <v>10182.700000000001</v>
+        <v>1228.0999999999999</v>
       </c>
       <c r="I9">
-        <v>382.3</v>
+        <v>91.5</v>
       </c>
       <c r="J9">
-        <v>1605</v>
+        <v>4.2</v>
       </c>
       <c r="K9">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,78 +1434,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1193.5999999999999</v>
+        <v>341.1</v>
       </c>
       <c r="O9">
-        <v>4204.6000000000004</v>
+        <v>458.6</v>
       </c>
       <c r="P9">
-        <v>1645.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q9">
-        <v>838.3</v>
+        <v>-3</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>38717</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="T9">
-        <v>5978.1</v>
+        <v>769.5</v>
       </c>
       <c r="U9">
-        <v>2221.3000000000002</v>
+        <v>37.4</v>
       </c>
       <c r="V9">
-        <v>905.6</v>
+        <v>-85.2</v>
       </c>
       <c r="W9">
-        <v>-25.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="X9">
-        <v>17.7</v>
+        <v>-1.2</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>15</v>
+        <v>97.9</v>
       </c>
       <c r="AA9">
-        <v>403.3</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38807</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>470.7</v>
+        <v>-24.6</v>
       </c>
       <c r="D10">
-        <v>1481.4</v>
+        <v>419.2</v>
       </c>
       <c r="E10">
-        <v>213.2</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="F10">
-        <v>656.2</v>
+        <v>-22.7</v>
       </c>
       <c r="G10">
-        <v>2807.6</v>
+        <v>642.4</v>
       </c>
       <c r="H10">
-        <v>10166.9</v>
+        <v>1300.8</v>
       </c>
       <c r="I10">
-        <v>117.3</v>
+        <v>155.9</v>
       </c>
       <c r="J10">
-        <v>1600</v>
+        <v>4.2</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1517,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>950.2</v>
+        <v>442.4</v>
       </c>
       <c r="O10">
-        <v>3884.7</v>
+        <v>551.4</v>
       </c>
       <c r="P10">
-        <v>1605</v>
+        <v>4.2</v>
       </c>
       <c r="Q10">
-        <v>53.6</v>
+        <v>1.3</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38807</v>
       </c>
       <c r="S10">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>6282.2</v>
+        <v>749.4</v>
       </c>
       <c r="U10">
-        <v>2274.9</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="V10">
-        <v>421.3</v>
+        <v>18.5</v>
       </c>
       <c r="W10">
-        <v>-25.3</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="X10">
-        <v>-76.7</v>
+        <v>-16.2</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>17.399999999999999</v>
+        <v>21.7</v>
       </c>
       <c r="AA10">
-        <v>470.7</v>
+        <v>-24.6</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>38898</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>406.5</v>
+        <v>42.6</v>
       </c>
       <c r="D11">
-        <v>1336.5</v>
+        <v>688.7</v>
       </c>
       <c r="E11">
-        <v>242.7</v>
+        <v>85</v>
       </c>
       <c r="F11">
-        <v>675.1</v>
+        <v>101.2</v>
       </c>
       <c r="G11">
-        <v>2907.7</v>
+        <v>540.79999999999995</v>
       </c>
       <c r="H11">
-        <v>10338.4</v>
+        <v>1182</v>
       </c>
       <c r="I11">
-        <v>437.6</v>
+        <v>148.1</v>
       </c>
       <c r="J11">
-        <v>1600</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1600,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1285.3</v>
+        <v>253.8</v>
       </c>
       <c r="O11">
-        <v>4220.7</v>
+        <v>371.6</v>
       </c>
       <c r="P11">
-        <v>1604.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q11">
-        <v>-64.599999999999994</v>
+        <v>-14</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>38898</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>6117.7</v>
+        <v>810.4</v>
       </c>
       <c r="U11">
-        <v>2210.3000000000002</v>
+        <v>24.7</v>
       </c>
       <c r="V11">
-        <v>678.7</v>
+        <v>44.4</v>
       </c>
       <c r="W11">
-        <v>-25.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="X11">
-        <v>-528.4</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>-45.7</v>
       </c>
       <c r="AA11">
-        <v>406.5</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>38990</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>498.2</v>
+        <v>7.3</v>
       </c>
       <c r="D12">
-        <v>1714.9</v>
+        <v>398.6</v>
       </c>
       <c r="E12">
-        <v>294.3</v>
+        <v>86.5</v>
       </c>
       <c r="F12">
-        <v>865.2</v>
+        <v>25.8</v>
       </c>
       <c r="G12">
-        <v>2719.5</v>
+        <v>655.29999999999995</v>
       </c>
       <c r="H12">
-        <v>10251.6</v>
+        <v>1291.8</v>
       </c>
       <c r="I12">
-        <v>466.8</v>
+        <v>145.9</v>
       </c>
       <c r="J12">
-        <v>3098</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1683,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>577.1</v>
+        <v>342.1</v>
       </c>
       <c r="O12">
-        <v>4908.2</v>
+        <v>469.2</v>
       </c>
       <c r="P12">
-        <v>3098</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q12">
-        <v>-276.2</v>
+        <v>-3.3</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>38990</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>5343.4</v>
+        <v>822.6</v>
       </c>
       <c r="U12">
-        <v>1934.1</v>
+        <v>21.4</v>
       </c>
       <c r="V12">
-        <v>-110.4</v>
+        <v>100.4</v>
       </c>
       <c r="W12">
-        <v>-23.7</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="X12">
-        <v>98.6</v>
+        <v>-5</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>5.6</v>
+        <v>-80.7</v>
       </c>
       <c r="AA12">
-        <v>498.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>39082</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>234.1</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>1097</v>
+        <v>526.4</v>
       </c>
       <c r="E13">
-        <v>186.9</v>
+        <v>107.8</v>
       </c>
       <c r="F13">
-        <v>386.1</v>
+        <v>42.9</v>
       </c>
       <c r="G13">
-        <v>3059.7</v>
+        <v>633.1</v>
       </c>
       <c r="H13">
-        <v>10799</v>
+        <v>1290.4000000000001</v>
       </c>
       <c r="I13">
-        <v>444</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="J13">
-        <v>3098</v>
+        <v>4.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1766,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>912.9</v>
+        <v>353.4</v>
       </c>
       <c r="O13">
-        <v>5337</v>
+        <v>509.8</v>
       </c>
       <c r="P13">
-        <v>3098</v>
+        <v>4.2</v>
       </c>
       <c r="Q13">
-        <v>352.1</v>
+        <v>4</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>39082</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="T13">
-        <v>5462</v>
+        <v>780.6</v>
       </c>
       <c r="U13">
-        <v>2286.1999999999998</v>
+        <v>25.4</v>
       </c>
       <c r="V13">
-        <v>861</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="W13">
-        <v>-23</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="X13">
-        <v>-235.5</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>-16.2</v>
       </c>
       <c r="AA13">
-        <v>234.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>39172</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>325.8</v>
+        <v>57.2</v>
       </c>
       <c r="D14">
-        <v>1326.3</v>
+        <v>472.4</v>
       </c>
       <c r="E14">
-        <v>225</v>
+        <v>118.5</v>
       </c>
       <c r="F14">
-        <v>593.79999999999995</v>
+        <v>105.1</v>
       </c>
       <c r="G14">
-        <v>2630.1</v>
+        <v>936.7</v>
       </c>
       <c r="H14">
-        <v>10678.1</v>
+        <v>1597.7</v>
       </c>
       <c r="I14">
-        <v>169</v>
+        <v>194.8</v>
       </c>
       <c r="J14">
-        <v>3098.1</v>
+        <v>4.3</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1849,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>828.3</v>
+        <v>580.6</v>
       </c>
       <c r="O14">
-        <v>5239.7</v>
+        <v>746.9</v>
       </c>
       <c r="P14">
-        <v>3098.1</v>
+        <v>4.3</v>
       </c>
       <c r="Q14">
-        <v>-575.4</v>
+        <v>2.4</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>39172</v>
       </c>
       <c r="S14">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>5438.4</v>
+        <v>850.8</v>
       </c>
       <c r="U14">
-        <v>1710.8</v>
+        <v>27.8</v>
       </c>
       <c r="V14">
-        <v>37.5</v>
+        <v>191.1</v>
       </c>
       <c r="W14">
-        <v>-57.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="X14">
-        <v>-315</v>
+        <v>3.2</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>6.9</v>
+        <v>-162.9</v>
       </c>
       <c r="AA14">
-        <v>325.8</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>39263</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>708.5</v>
+        <v>93.6</v>
       </c>
       <c r="D15">
-        <v>1132.5999999999999</v>
+        <v>848.9</v>
       </c>
       <c r="E15">
-        <v>215.7</v>
+        <v>158</v>
       </c>
       <c r="F15">
-        <v>442.8</v>
+        <v>177.6</v>
       </c>
       <c r="G15">
-        <v>4911.1000000000004</v>
+        <v>923.3</v>
       </c>
       <c r="H15">
-        <v>12475.5</v>
+        <v>1587.9</v>
       </c>
       <c r="I15">
-        <v>583.5</v>
+        <v>182</v>
       </c>
       <c r="J15">
-        <v>4592.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1932,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1435.7</v>
+        <v>429.4</v>
       </c>
       <c r="O15">
-        <v>7167.2</v>
+        <v>610.79999999999995</v>
       </c>
       <c r="P15">
-        <v>4592.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q15">
-        <v>1819.4</v>
+        <v>31.8</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>39263</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>5308.3</v>
+        <v>977.1</v>
       </c>
       <c r="U15">
-        <v>3530.2</v>
+        <v>59.6</v>
       </c>
       <c r="V15">
-        <v>750</v>
+        <v>111.1</v>
       </c>
       <c r="W15">
-        <v>-55.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="X15">
-        <v>602.79999999999995</v>
+        <v>-24</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="AA15">
-        <v>708.5</v>
+        <v>93.6</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>39355</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>312.60000000000002</v>
+        <v>86.5</v>
       </c>
       <c r="D16">
-        <v>1472.7</v>
+        <v>582.9</v>
       </c>
       <c r="E16">
-        <v>258.3</v>
+        <v>142.5</v>
       </c>
       <c r="F16">
-        <v>590.29999999999995</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="G16">
-        <v>3405.7</v>
+        <v>1138.8</v>
       </c>
       <c r="H16">
-        <v>11304.9</v>
+        <v>1825.3</v>
       </c>
       <c r="I16">
-        <v>541.70000000000005</v>
+        <v>175.4</v>
       </c>
       <c r="J16">
-        <v>4592.3999999999996</v>
+        <v>5</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2015,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>720.3</v>
+        <v>563.70000000000005</v>
       </c>
       <c r="O16">
-        <v>6459.8</v>
+        <v>737.7</v>
       </c>
       <c r="P16">
-        <v>4592.3999999999996</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>-1336.1</v>
+        <v>-6.6</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>39355</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4845.1000000000004</v>
+        <v>1087.5999999999999</v>
       </c>
       <c r="U16">
-        <v>2194.1</v>
+        <v>53</v>
       </c>
       <c r="V16">
-        <v>-194.7</v>
+        <v>201.4</v>
       </c>
       <c r="W16">
-        <v>-52</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="X16">
-        <v>-874.6</v>
+        <v>2.9</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-171.4</v>
       </c>
       <c r="AA16">
-        <v>312.60000000000002</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>39447</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>130.9</v>
+        <v>135.4</v>
       </c>
       <c r="D17">
-        <v>921.4</v>
+        <v>852.5</v>
       </c>
       <c r="E17">
-        <v>156.9</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="F17">
-        <v>301.10000000000002</v>
+        <v>236</v>
       </c>
       <c r="G17">
-        <v>3338.7</v>
+        <v>1279.0999999999999</v>
       </c>
       <c r="H17">
-        <v>11659.8</v>
+        <v>2012.5</v>
       </c>
       <c r="I17">
-        <v>545.5</v>
+        <v>92.8</v>
       </c>
       <c r="J17">
-        <v>4592.3999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2098,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1048.8</v>
+        <v>629.29999999999995</v>
       </c>
       <c r="O17">
-        <v>6804.5</v>
+        <v>808.2</v>
       </c>
       <c r="P17">
-        <v>4592.3999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q17">
-        <v>457.1</v>
+        <v>313.5</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>39447</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="T17">
-        <v>4855.3</v>
+        <v>1204.3</v>
       </c>
       <c r="U17">
-        <v>2651.2</v>
+        <v>366.5</v>
       </c>
       <c r="V17">
-        <v>621.6</v>
+        <v>186.5</v>
       </c>
       <c r="W17">
-        <v>-74.2</v>
+        <v>-1.2</v>
       </c>
       <c r="X17">
-        <v>-82.7</v>
+        <v>13</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>5</v>
+        <v>143.4</v>
       </c>
       <c r="AA17">
-        <v>130.9</v>
+        <v>135.4</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>39538</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>238.3</v>
+        <v>158.80000000000001</v>
       </c>
       <c r="D18">
-        <v>1216.5</v>
+        <v>667.3</v>
       </c>
       <c r="E18">
-        <v>185.7</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="F18">
-        <v>444.3</v>
+        <v>271.2</v>
       </c>
       <c r="G18">
-        <v>2530.5</v>
+        <v>1516.5</v>
       </c>
       <c r="H18">
-        <v>11254.2</v>
+        <v>2530.6</v>
       </c>
       <c r="I18">
-        <v>65.8</v>
+        <v>240.4</v>
       </c>
       <c r="J18">
-        <v>4592.5</v>
+        <v>4.8</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2181,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>979.7</v>
+        <v>985.9</v>
       </c>
       <c r="O18">
-        <v>6681.7</v>
+        <v>1153</v>
       </c>
       <c r="P18">
-        <v>4592.5</v>
+        <v>4.8</v>
       </c>
       <c r="Q18">
-        <v>-654.6</v>
+        <v>485.5</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>39538</v>
       </c>
       <c r="S18">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>4572.5</v>
+        <v>1377.6</v>
       </c>
       <c r="U18">
-        <v>1996.6</v>
+        <v>852</v>
       </c>
       <c r="V18">
-        <v>231.7</v>
+        <v>297.2</v>
       </c>
       <c r="W18">
-        <v>-74.3</v>
+        <v>-5.6</v>
       </c>
       <c r="X18">
-        <v>-420.6</v>
+        <v>1.2</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="AA18">
-        <v>238.3</v>
+        <v>158.80000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>39629</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>231</v>
+        <v>288.60000000000002</v>
       </c>
       <c r="D19">
-        <v>954</v>
+        <v>1161</v>
       </c>
       <c r="E19">
-        <v>167.1</v>
+        <v>175.3</v>
       </c>
       <c r="F19">
-        <v>416</v>
+        <v>469.9</v>
       </c>
       <c r="G19">
-        <v>2379.6999999999998</v>
+        <v>1770.8</v>
       </c>
       <c r="H19">
-        <v>11485.3</v>
+        <v>2767.3</v>
       </c>
       <c r="I19">
-        <v>693.2</v>
+        <v>266.60000000000002</v>
       </c>
       <c r="J19">
-        <v>4592.5</v>
+        <v>4.8</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2264,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1311.3</v>
+        <v>914.1</v>
       </c>
       <c r="O19">
-        <v>7066.8</v>
+        <v>1078.8</v>
       </c>
       <c r="P19">
-        <v>4592.5</v>
+        <v>4.8</v>
       </c>
       <c r="Q19">
-        <v>-218</v>
+        <v>-46.2</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>39629</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4418.5</v>
+        <v>1688.5</v>
       </c>
       <c r="U19">
-        <v>1778.8</v>
+        <v>805.8</v>
       </c>
       <c r="V19">
-        <v>531</v>
+        <v>219.3</v>
       </c>
       <c r="W19">
-        <v>-72</v>
+        <v>-5.7</v>
       </c>
       <c r="X19">
-        <v>-314</v>
+        <v>-26.7</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-202.1</v>
       </c>
       <c r="AA19">
-        <v>231</v>
+        <v>288.60000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>39721</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>352</v>
+        <v>47.1</v>
       </c>
       <c r="D20">
-        <v>1311</v>
+        <v>1020.8</v>
       </c>
       <c r="E20">
-        <v>194.9</v>
+        <v>154</v>
       </c>
       <c r="F20">
-        <v>686</v>
+        <v>120.9</v>
       </c>
       <c r="G20">
-        <v>1366.4</v>
+        <v>2041.5</v>
       </c>
       <c r="H20">
-        <v>10998.4</v>
+        <v>3018.5</v>
       </c>
       <c r="I20">
-        <v>701.2</v>
+        <v>219.1</v>
       </c>
       <c r="J20">
-        <v>4592.6000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2347,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>753.5</v>
+        <v>960.4</v>
       </c>
       <c r="O20">
-        <v>6522.6</v>
+        <v>1241.9000000000001</v>
       </c>
       <c r="P20">
-        <v>4592.6000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q20">
-        <v>-969</v>
+        <v>22.6</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>39721</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>4475.8</v>
+        <v>1776.6</v>
       </c>
       <c r="U20">
-        <v>809.9</v>
+        <v>828.4</v>
       </c>
       <c r="V20">
-        <v>-32</v>
+        <v>97.4</v>
       </c>
       <c r="W20">
-        <v>-71</v>
+        <v>-5.6</v>
       </c>
       <c r="X20">
-        <v>-366</v>
+        <v>13.9</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>13</v>
+        <v>-55.1</v>
       </c>
       <c r="AA20">
-        <v>352</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39813</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>90</v>
+        <v>190.1</v>
       </c>
       <c r="D21">
-        <v>928</v>
+        <v>1072</v>
       </c>
       <c r="E21">
-        <v>251.9</v>
+        <v>170.5</v>
       </c>
       <c r="F21">
-        <v>165</v>
+        <v>360.7</v>
       </c>
       <c r="G21">
-        <v>1764.2</v>
+        <v>1433.2</v>
       </c>
       <c r="H21">
-        <v>12869.8</v>
+        <v>2387.6</v>
       </c>
       <c r="I21">
-        <v>825.4</v>
+        <v>62</v>
       </c>
       <c r="J21">
-        <v>5592.6</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2430,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1273.5999999999999</v>
+        <v>818.1</v>
       </c>
       <c r="O21">
-        <v>8402.2999999999993</v>
+        <v>1036.9000000000001</v>
       </c>
       <c r="P21">
-        <v>5592.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q21">
-        <v>133</v>
+        <v>-203.4</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39813</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="T21">
-        <v>4467.5</v>
+        <v>1350.7</v>
       </c>
       <c r="U21">
-        <v>943.2</v>
+        <v>625</v>
       </c>
       <c r="V21">
-        <v>575</v>
+        <v>24.7</v>
       </c>
       <c r="W21">
-        <v>-69</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="X21">
-        <v>859</v>
+        <v>-528.9</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>327.10000000000002</v>
       </c>
       <c r="AA21">
-        <v>90</v>
+        <v>190.1</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>39903</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>62.7</v>
       </c>
       <c r="D22">
-        <v>1115</v>
+        <v>680.6</v>
       </c>
       <c r="E22">
-        <v>210</v>
+        <v>185.4</v>
       </c>
       <c r="F22">
-        <v>280</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="G22">
-        <v>1127</v>
+        <v>1495</v>
       </c>
       <c r="H22">
-        <v>12683</v>
+        <v>2506.1</v>
       </c>
       <c r="I22">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="J22">
-        <v>5537</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,161 +2513,161 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1215</v>
+        <v>865.9</v>
       </c>
       <c r="O22">
-        <v>8296</v>
+        <v>1081.5</v>
       </c>
       <c r="P22">
-        <v>5537</v>
+        <v>3.9</v>
       </c>
       <c r="Q22">
-        <v>-657</v>
+        <v>178.8</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>39903</v>
       </c>
       <c r="S22">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>4387</v>
+        <v>1424.6</v>
       </c>
       <c r="U22">
-        <v>286</v>
+        <v>803.8</v>
       </c>
       <c r="V22">
-        <v>133</v>
+        <v>292.3</v>
       </c>
       <c r="W22">
-        <v>-70</v>
+        <v>-4.8</v>
       </c>
       <c r="X22">
-        <v>-102</v>
+        <v>-4.5</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="AA22">
-        <v>27</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>39994</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="D23">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="E23">
-        <v>262</v>
+        <v>137.9</v>
       </c>
       <c r="F23">
-        <v>217</v>
+        <v>427</v>
       </c>
       <c r="G23">
-        <v>3520</v>
+        <v>1284.4000000000001</v>
       </c>
       <c r="H23">
-        <v>15581</v>
+        <v>2279.4</v>
       </c>
       <c r="I23">
-        <v>880</v>
+        <v>165</v>
       </c>
       <c r="J23">
-        <v>5539</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1273</v>
+        <v>309.5</v>
       </c>
       <c r="O23">
-        <v>8387</v>
+        <v>589.70000000000005</v>
       </c>
       <c r="P23">
-        <v>5539</v>
+        <v>4.2</v>
       </c>
       <c r="Q23">
-        <v>2403</v>
+        <v>12.3</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>39994</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>7194</v>
+        <v>1689.7</v>
       </c>
       <c r="U23">
-        <v>2689</v>
+        <v>816.1</v>
       </c>
       <c r="V23">
-        <v>346</v>
+        <v>194.9</v>
       </c>
       <c r="W23">
-        <v>-70</v>
+        <v>-4.8</v>
       </c>
       <c r="X23">
-        <v>2717</v>
+        <v>-115.4</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-20.6</v>
       </c>
       <c r="AA23">
-        <v>26</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>40086</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>47</v>
+        <v>38.5</v>
       </c>
       <c r="D24">
-        <v>1134</v>
+        <v>430.1</v>
       </c>
       <c r="E24">
-        <v>239</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="F24">
-        <v>527</v>
+        <v>124</v>
       </c>
       <c r="G24">
-        <v>3374</v>
+        <v>1084.8</v>
       </c>
       <c r="H24">
-        <v>15762</v>
+        <v>2357.1</v>
       </c>
       <c r="I24">
-        <v>742</v>
+        <v>131</v>
       </c>
       <c r="J24">
-        <v>5540</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2679,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>773</v>
+        <v>329.1</v>
       </c>
       <c r="O24">
-        <v>8597</v>
+        <v>597.79999999999995</v>
       </c>
       <c r="P24">
-        <v>5540</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q24">
-        <v>-681</v>
+        <v>-318.60000000000002</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>40086</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>7165</v>
+        <v>1759.3</v>
       </c>
       <c r="U24">
-        <v>2008</v>
+        <v>497.5</v>
       </c>
       <c r="V24">
-        <v>100</v>
+        <v>83.3</v>
       </c>
       <c r="W24">
-        <v>-70</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="X24">
-        <v>-82</v>
+        <v>0.4</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-346.2</v>
       </c>
       <c r="AA24">
-        <v>47</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>40178</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>-30</v>
+        <v>51.4</v>
       </c>
       <c r="D25">
-        <v>680</v>
+        <v>506.7</v>
       </c>
       <c r="E25">
-        <v>207</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>126.1</v>
       </c>
       <c r="G25">
-        <v>2931</v>
+        <v>1283.0999999999999</v>
       </c>
       <c r="H25">
-        <v>15632</v>
+        <v>2494.9</v>
       </c>
       <c r="I25">
-        <v>843</v>
+        <v>41.7</v>
       </c>
       <c r="J25">
-        <v>5540</v>
+        <v>4.7</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2762,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>966</v>
+        <v>479.8</v>
       </c>
       <c r="O25">
-        <v>8652</v>
+        <v>750</v>
       </c>
       <c r="P25">
-        <v>5540</v>
+        <v>4.7</v>
       </c>
       <c r="Q25">
-        <v>-454</v>
+        <v>199.6</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>40178</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="T25">
-        <v>6980</v>
+        <v>1744.9</v>
       </c>
       <c r="U25">
-        <v>1554</v>
+        <v>697.1</v>
       </c>
       <c r="V25">
-        <v>145</v>
+        <v>111.3</v>
       </c>
       <c r="W25">
-        <v>-69</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="X25">
-        <v>-166</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>147.5</v>
       </c>
       <c r="AA25">
-        <v>-30</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>40268</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-320</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="D26">
-        <v>867</v>
+        <v>502.4</v>
       </c>
       <c r="E26">
-        <v>227</v>
+        <v>197.5</v>
       </c>
       <c r="F26">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="G26">
-        <v>2655</v>
+        <v>1549.8</v>
       </c>
       <c r="H26">
-        <v>15131</v>
+        <v>2633.1</v>
       </c>
       <c r="I26">
-        <v>81</v>
+        <v>169.9</v>
       </c>
       <c r="J26">
-        <v>5778</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2845,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>686</v>
+        <v>633.29999999999995</v>
       </c>
       <c r="O26">
-        <v>8639</v>
+        <v>894.1</v>
       </c>
       <c r="P26">
-        <v>5778</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q26">
-        <v>-390</v>
+        <v>313.39999999999998</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>40268</v>
       </c>
       <c r="S26">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>6492</v>
+        <v>1739</v>
       </c>
       <c r="U26">
-        <v>1164</v>
+        <v>1010.5</v>
       </c>
       <c r="V26">
-        <v>26</v>
+        <v>47.5</v>
       </c>
       <c r="W26">
-        <v>-71</v>
+        <v>-4.8</v>
       </c>
       <c r="X26">
-        <v>-30</v>
+        <v>-36.200000000000003</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>328.7</v>
       </c>
       <c r="AA26">
-        <v>-320</v>
+        <v>-4.4000000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>40359</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-23</v>
+        <v>105.1</v>
       </c>
       <c r="D27">
-        <v>1037</v>
+        <v>1307.9000000000001</v>
       </c>
       <c r="E27">
-        <v>252</v>
+        <v>347.4</v>
       </c>
       <c r="F27">
-        <v>107</v>
+        <v>416.2</v>
       </c>
       <c r="G27">
-        <v>2805</v>
+        <v>1267.4000000000001</v>
       </c>
       <c r="H27">
-        <v>15185</v>
+        <v>8595.2999999999993</v>
       </c>
       <c r="I27">
-        <v>657</v>
+        <v>321.8</v>
       </c>
       <c r="J27">
-        <v>5780</v>
+        <v>2582.6</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2928,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>853</v>
+        <v>580.6</v>
       </c>
       <c r="O27">
-        <v>8802</v>
+        <v>4400.2</v>
       </c>
       <c r="P27">
-        <v>5780</v>
+        <v>2601.1999999999998</v>
       </c>
       <c r="Q27">
-        <v>147</v>
+        <v>-409.1</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>40359</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>6383</v>
+        <v>4195.1000000000004</v>
       </c>
       <c r="U27">
-        <v>1312</v>
+        <v>601.4</v>
       </c>
       <c r="V27">
-        <v>356</v>
+        <v>-1.5</v>
       </c>
       <c r="W27">
-        <v>-70</v>
+        <v>-7.2</v>
       </c>
       <c r="X27">
-        <v>-124</v>
+        <v>2780.2</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="AA27">
-        <v>-23</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>40451</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>48.2</v>
       </c>
       <c r="D28">
-        <v>1124</v>
+        <v>917.1</v>
       </c>
       <c r="E28">
-        <v>282</v>
+        <v>228.8</v>
       </c>
       <c r="F28">
-        <v>173</v>
+        <v>169.8</v>
       </c>
       <c r="G28">
-        <v>2675</v>
+        <v>1199</v>
       </c>
       <c r="H28">
-        <v>14936</v>
+        <v>8617.5</v>
       </c>
       <c r="I28">
-        <v>616</v>
+        <v>320.5</v>
       </c>
       <c r="J28">
-        <v>4986</v>
+        <v>2255.6</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3011,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1441</v>
+        <v>725.3</v>
       </c>
       <c r="O28">
-        <v>8546</v>
+        <v>4315.6000000000004</v>
       </c>
       <c r="P28">
-        <v>5783</v>
+        <v>2255.6</v>
       </c>
       <c r="Q28">
-        <v>689</v>
+        <v>47</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>40451</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>6390</v>
+        <v>4301.8999999999996</v>
       </c>
       <c r="U28">
-        <v>2001</v>
+        <v>648.4</v>
       </c>
       <c r="V28">
-        <v>831</v>
+        <v>588</v>
       </c>
       <c r="W28">
-        <v>-70</v>
+        <v>-27.1</v>
       </c>
       <c r="X28">
-        <v>-75</v>
+        <v>-461.8</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>15</v>
+        <v>0.8</v>
       </c>
       <c r="AA28">
-        <v>3</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40543</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>-87</v>
+        <v>200.3</v>
       </c>
       <c r="D29">
-        <v>870</v>
+        <v>1237.5999999999999</v>
       </c>
       <c r="E29">
-        <v>279</v>
+        <v>236.2</v>
       </c>
       <c r="F29">
-        <v>11</v>
+        <v>483.9</v>
       </c>
       <c r="G29">
-        <v>2651</v>
+        <v>1341.4</v>
       </c>
       <c r="H29">
-        <v>14857</v>
+        <v>8754</v>
       </c>
       <c r="I29">
-        <v>635</v>
+        <v>87.9</v>
       </c>
       <c r="J29">
-        <v>4988</v>
+        <v>1954.1</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3094,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1551</v>
+        <v>948.6</v>
       </c>
       <c r="O29">
-        <v>8617</v>
+        <v>4320.6000000000004</v>
       </c>
       <c r="P29">
-        <v>5786</v>
+        <v>1959</v>
       </c>
       <c r="Q29">
-        <v>-13</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40543</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="T29">
-        <v>6240</v>
+        <v>4433.3999999999996</v>
       </c>
       <c r="U29">
-        <v>1992</v>
+        <v>797.7</v>
       </c>
       <c r="V29">
-        <v>214</v>
+        <v>560.4</v>
       </c>
       <c r="W29">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-136</v>
+        <v>-305.2</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>6</v>
+        <v>15.6</v>
       </c>
       <c r="AA29">
-        <v>-87</v>
+        <v>200.3</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>40633</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>465</v>
+        <v>282</v>
       </c>
       <c r="D30">
-        <v>1099</v>
+        <v>1174</v>
       </c>
       <c r="E30">
-        <v>297</v>
+        <v>260.3</v>
       </c>
       <c r="F30">
-        <v>143</v>
+        <v>525</v>
       </c>
       <c r="G30">
-        <v>1465</v>
+        <v>1808.8</v>
       </c>
       <c r="H30">
-        <v>13463</v>
+        <v>9189.9</v>
       </c>
       <c r="I30">
-        <v>99</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="J30">
-        <v>4692</v>
+        <v>1613</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3093,81 +3174,81 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-346</v>
       </c>
       <c r="N30">
-        <v>580</v>
+        <v>1383.9</v>
       </c>
       <c r="O30">
-        <v>6779</v>
+        <v>4398.3</v>
       </c>
       <c r="P30">
-        <v>4692</v>
+        <v>1618.1</v>
       </c>
       <c r="Q30">
-        <v>-1157</v>
+        <v>336.4</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>40633</v>
       </c>
       <c r="S30">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>6684</v>
+        <v>4791.6000000000004</v>
       </c>
       <c r="U30">
-        <v>835</v>
+        <v>1134.0999999999999</v>
       </c>
       <c r="V30">
-        <v>230</v>
+        <v>671.2</v>
       </c>
       <c r="W30">
-        <v>-70</v>
+        <v>-7.1</v>
       </c>
       <c r="X30">
-        <v>-1229</v>
+        <v>-350.5</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>18</v>
+        <v>0.5</v>
       </c>
       <c r="AA30">
-        <v>465</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>40724</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>63</v>
+        <v>487.4</v>
       </c>
       <c r="D31">
-        <v>957</v>
+        <v>1801.7</v>
       </c>
       <c r="E31">
-        <v>247</v>
+        <v>424.5</v>
       </c>
       <c r="F31">
-        <v>190</v>
+        <v>867.4</v>
       </c>
       <c r="G31">
-        <v>1660</v>
+        <v>2080.4</v>
       </c>
       <c r="H31">
-        <v>13522</v>
+        <v>9420</v>
       </c>
       <c r="I31">
-        <v>447</v>
+        <v>336.9</v>
       </c>
       <c r="J31">
-        <v>4693</v>
+        <v>1613</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3260,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>626</v>
+        <v>1094.5999999999999</v>
       </c>
       <c r="O31">
-        <v>6857</v>
+        <v>4088.2</v>
       </c>
       <c r="P31">
-        <v>4693</v>
+        <v>1618.1</v>
       </c>
       <c r="Q31">
-        <v>101</v>
+        <v>221.5</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>40724</v>
       </c>
       <c r="S31">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>6665</v>
+        <v>5331.8</v>
       </c>
       <c r="U31">
-        <v>936</v>
+        <v>1355.6</v>
       </c>
       <c r="V31">
-        <v>282</v>
+        <v>250.9</v>
       </c>
       <c r="W31">
-        <v>-70</v>
+        <v>-7.2</v>
       </c>
       <c r="X31">
-        <v>-127</v>
+        <v>-11.2</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>4</v>
+        <v>24.1</v>
       </c>
       <c r="AA31">
-        <v>63</v>
+        <v>487.4</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40816</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>148</v>
+        <v>330.9</v>
       </c>
       <c r="D32">
-        <v>1300</v>
+        <v>1403.8</v>
       </c>
       <c r="E32">
-        <v>338</v>
+        <v>268.60000000000002</v>
       </c>
       <c r="F32">
-        <v>312</v>
+        <v>638</v>
       </c>
       <c r="G32">
-        <v>1348</v>
+        <v>2057.9</v>
       </c>
       <c r="H32">
-        <v>12987</v>
+        <v>9245.7999999999993</v>
       </c>
       <c r="I32">
-        <v>429</v>
+        <v>429.6</v>
       </c>
       <c r="J32">
-        <v>4695</v>
+        <v>1613</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3343,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>482</v>
+        <v>1502.5</v>
       </c>
       <c r="O32">
-        <v>6665</v>
+        <v>4496</v>
       </c>
       <c r="P32">
-        <v>4695</v>
+        <v>1617.7</v>
       </c>
       <c r="Q32">
-        <v>-208</v>
+        <v>70.5</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40816</v>
       </c>
       <c r="S32">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>6322</v>
+        <v>4749.8</v>
       </c>
       <c r="U32">
-        <v>728</v>
+        <v>1426.1</v>
       </c>
       <c r="V32">
-        <v>316</v>
+        <v>1033</v>
       </c>
       <c r="W32">
-        <v>-70</v>
+        <v>-28.3</v>
       </c>
       <c r="X32">
-        <v>-456</v>
+        <v>-917.5</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>6</v>
+        <v>12.3</v>
       </c>
       <c r="AA32">
-        <v>148</v>
+        <v>330.9</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>40908</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>438.9</v>
       </c>
       <c r="D33">
-        <v>1040</v>
+        <v>1718.4</v>
       </c>
       <c r="E33">
-        <v>273</v>
+        <v>266.89999999999998</v>
       </c>
       <c r="F33">
-        <v>173</v>
+        <v>865.2</v>
       </c>
       <c r="G33">
-        <v>1597</v>
+        <v>1798.6</v>
       </c>
       <c r="H33">
-        <v>13156</v>
+        <v>8974.5</v>
       </c>
       <c r="I33">
-        <v>467</v>
+        <v>99.5</v>
       </c>
       <c r="J33">
-        <v>4697</v>
+        <v>1617.8</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3426,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>788</v>
+        <v>1031.2</v>
       </c>
       <c r="O33">
-        <v>6993</v>
+        <v>4041.6</v>
       </c>
       <c r="P33">
-        <v>4697</v>
+        <v>1617.8</v>
       </c>
       <c r="Q33">
-        <v>294</v>
+        <v>-219.1</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>40908</v>
       </c>
       <c r="S33">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T33">
-        <v>6163</v>
+        <v>4932.8999999999996</v>
       </c>
       <c r="U33">
-        <v>1022</v>
+        <v>1207</v>
       </c>
       <c r="V33">
-        <v>645</v>
+        <v>123.8</v>
       </c>
       <c r="W33">
-        <v>-70</v>
+        <v>-26.1</v>
       </c>
       <c r="X33">
-        <v>-231</v>
+        <v>-220.2</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33">
-        <v>30</v>
+        <v>438.9</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>40999</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>49</v>
+        <v>368.4</v>
       </c>
       <c r="D34">
-        <v>1132</v>
+        <v>1527.6</v>
       </c>
       <c r="E34">
-        <v>226</v>
+        <v>464.9</v>
       </c>
       <c r="F34">
-        <v>242</v>
+        <v>711.8</v>
       </c>
       <c r="G34">
-        <v>1274</v>
+        <v>2458.4</v>
       </c>
       <c r="H34">
-        <v>12661</v>
+        <v>9616.9</v>
       </c>
       <c r="I34">
-        <v>101</v>
+        <v>303.10000000000002</v>
       </c>
       <c r="J34">
-        <v>4698</v>
+        <v>1617.9</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,37 +3509,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>705</v>
+        <v>1250.5</v>
       </c>
       <c r="O34">
-        <v>6930</v>
+        <v>4256</v>
       </c>
       <c r="P34">
-        <v>4698</v>
+        <v>1617.9</v>
       </c>
       <c r="Q34">
-        <v>-340</v>
+        <v>506.3</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>40999</v>
       </c>
       <c r="S34">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>5731</v>
+        <v>5360.9</v>
       </c>
       <c r="U34">
-        <v>682</v>
+        <v>1713.3</v>
       </c>
       <c r="V34">
-        <v>254</v>
+        <v>603.20000000000005</v>
       </c>
       <c r="W34">
-        <v>-70</v>
+        <v>-26.2</v>
       </c>
       <c r="X34">
-        <v>-456</v>
+        <v>-34.200000000000003</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,39 +3548,39 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>49</v>
+        <v>368.4</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>41090</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>90</v>
+        <v>606.29999999999995</v>
       </c>
       <c r="D35">
-        <v>1001</v>
+        <v>1735.6</v>
       </c>
       <c r="E35">
-        <v>264</v>
+        <v>360.2</v>
       </c>
       <c r="F35">
-        <v>220</v>
+        <v>1043.3</v>
       </c>
       <c r="G35">
-        <v>1412</v>
+        <v>1996.7</v>
       </c>
       <c r="H35">
-        <v>12942</v>
+        <v>9118.9</v>
       </c>
       <c r="I35">
-        <v>432</v>
+        <v>320.39999999999998</v>
       </c>
       <c r="J35">
-        <v>4700</v>
+        <v>1604.8</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,81 +3592,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>826</v>
+        <v>555.29999999999995</v>
       </c>
       <c r="O35">
-        <v>7272</v>
+        <v>3618.7</v>
       </c>
       <c r="P35">
-        <v>4988</v>
+        <v>1604.8</v>
       </c>
       <c r="Q35">
-        <v>-11</v>
+        <v>-330.3</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>41090</v>
       </c>
       <c r="S35">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>5670</v>
+        <v>5500.2</v>
       </c>
       <c r="U35">
-        <v>671</v>
+        <v>1383</v>
       </c>
       <c r="V35">
-        <v>306</v>
+        <v>445.5</v>
       </c>
       <c r="W35">
-        <v>-67</v>
+        <v>-26.1</v>
       </c>
       <c r="X35">
-        <v>-242</v>
+        <v>-703.6</v>
       </c>
       <c r="Y35">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA35">
-        <v>90</v>
+        <v>606.29999999999995</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>41182</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>283</v>
+        <v>403.3</v>
       </c>
       <c r="D36">
-        <v>1502</v>
+        <v>1359.4</v>
       </c>
       <c r="E36">
-        <v>313</v>
+        <v>340.9</v>
       </c>
       <c r="F36">
-        <v>499</v>
+        <v>702</v>
       </c>
       <c r="G36">
-        <v>1488</v>
+        <v>3015.2</v>
       </c>
       <c r="H36">
-        <v>12863</v>
+        <v>10182.700000000001</v>
       </c>
       <c r="I36">
-        <v>416</v>
+        <v>382.3</v>
       </c>
       <c r="J36">
-        <v>4203</v>
+        <v>1605</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,78 +3675,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1042</v>
+        <v>1193.5999999999999</v>
       </c>
       <c r="O36">
-        <v>7045</v>
+        <v>4204.6000000000004</v>
       </c>
       <c r="P36">
-        <v>4987</v>
+        <v>1645.5</v>
       </c>
       <c r="Q36">
-        <v>187</v>
+        <v>838.3</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>41182</v>
       </c>
       <c r="S36">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>5818</v>
+        <v>5978.1</v>
       </c>
       <c r="U36">
-        <v>858</v>
+        <v>2221.3000000000002</v>
       </c>
       <c r="V36">
-        <v>387</v>
+        <v>905.6</v>
       </c>
       <c r="W36">
-        <v>-66</v>
+        <v>-25.1</v>
       </c>
       <c r="X36">
-        <v>-184</v>
+        <v>17.7</v>
       </c>
       <c r="Y36">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA36">
-        <v>283</v>
+        <v>403.3</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>41274</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>65</v>
+        <v>470.7</v>
       </c>
       <c r="D37">
-        <v>1038</v>
+        <v>1481.4</v>
       </c>
       <c r="E37">
-        <v>311</v>
+        <v>213.2</v>
       </c>
       <c r="F37">
-        <v>228</v>
+        <v>656.2</v>
       </c>
       <c r="G37">
-        <v>1669</v>
+        <v>2807.6</v>
       </c>
       <c r="H37">
-        <v>12902</v>
+        <v>10166.9</v>
       </c>
       <c r="I37">
-        <v>459</v>
+        <v>117.3</v>
       </c>
       <c r="J37">
-        <v>4204</v>
+        <v>1600</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3758,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1245</v>
+        <v>950.2</v>
       </c>
       <c r="O37">
-        <v>7221</v>
+        <v>3884.7</v>
       </c>
       <c r="P37">
-        <v>4971</v>
+        <v>1605</v>
       </c>
       <c r="Q37">
-        <v>161</v>
+        <v>53.6</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>41274</v>
       </c>
       <c r="S37">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T37">
-        <v>5681</v>
+        <v>6282.2</v>
       </c>
       <c r="U37">
-        <v>1019</v>
+        <v>2274.9</v>
       </c>
       <c r="V37">
-        <v>510</v>
+        <v>421.3</v>
       </c>
       <c r="W37">
-        <v>-67</v>
+        <v>-25.3</v>
       </c>
       <c r="X37">
-        <v>-227</v>
+        <v>-76.7</v>
       </c>
       <c r="Y37">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AA37">
-        <v>65</v>
+        <v>470.7</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>41364</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>55</v>
+        <v>406.5</v>
       </c>
       <c r="D38">
-        <v>1049</v>
+        <v>1336.5</v>
       </c>
       <c r="E38">
-        <v>229</v>
+        <v>242.7</v>
       </c>
       <c r="F38">
-        <v>227</v>
+        <v>675.1</v>
       </c>
       <c r="G38">
-        <v>974</v>
+        <v>2907.7</v>
       </c>
       <c r="H38">
-        <v>12172</v>
+        <v>10338.4</v>
       </c>
       <c r="I38">
-        <v>78</v>
+        <v>437.6</v>
       </c>
       <c r="J38">
-        <v>3957</v>
+        <v>1600</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,81 +3841,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>665</v>
+        <v>1285.3</v>
       </c>
       <c r="O38">
-        <v>6535</v>
+        <v>4220.7</v>
       </c>
       <c r="P38">
-        <v>4240</v>
+        <v>1604.8</v>
       </c>
       <c r="Q38">
-        <v>-732</v>
+        <v>-64.599999999999994</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>41364</v>
       </c>
       <c r="S38">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>5637</v>
+        <v>6117.7</v>
       </c>
       <c r="U38">
-        <v>287</v>
+        <v>2210.3000000000002</v>
       </c>
       <c r="V38">
-        <v>302</v>
+        <v>678.7</v>
       </c>
       <c r="W38">
-        <v>-65</v>
+        <v>-25.2</v>
       </c>
       <c r="X38">
-        <v>-930</v>
+        <v>-528.4</v>
       </c>
       <c r="Y38">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>55</v>
+        <v>406.5</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>41455</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>68</v>
+        <v>498.2</v>
       </c>
       <c r="D39">
-        <v>971</v>
+        <v>1714.9</v>
       </c>
       <c r="E39">
-        <v>251</v>
+        <v>294.3</v>
       </c>
       <c r="F39">
-        <v>204</v>
+        <v>865.2</v>
       </c>
       <c r="G39">
-        <v>1480</v>
+        <v>2719.5</v>
       </c>
       <c r="H39">
-        <v>12441</v>
+        <v>10251.6</v>
       </c>
       <c r="I39">
-        <v>378</v>
+        <v>466.8</v>
       </c>
       <c r="J39">
-        <v>3958</v>
+        <v>3098</v>
       </c>
       <c r="K39">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,78 +3924,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1235</v>
+        <v>577.1</v>
       </c>
       <c r="O39">
-        <v>7038</v>
+        <v>4908.2</v>
       </c>
       <c r="P39">
-        <v>4749</v>
+        <v>3098</v>
       </c>
       <c r="Q39">
-        <v>466</v>
+        <v>-276.2</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>41455</v>
       </c>
       <c r="S39">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>5403</v>
+        <v>5343.4</v>
       </c>
       <c r="U39">
-        <v>753</v>
+        <v>1934.1</v>
       </c>
       <c r="V39">
-        <v>292</v>
+        <v>-110.4</v>
       </c>
       <c r="W39">
-        <v>-65</v>
+        <v>-23.7</v>
       </c>
       <c r="X39">
-        <v>242</v>
+        <v>98.6</v>
       </c>
       <c r="Y39">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AA39">
-        <v>68</v>
+        <v>498.2</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>41547</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>190</v>
+        <v>234.1</v>
       </c>
       <c r="D40">
-        <v>1204</v>
+        <v>1097</v>
       </c>
       <c r="E40">
-        <v>250</v>
+        <v>186.9</v>
       </c>
       <c r="F40">
-        <v>334</v>
+        <v>386.1</v>
       </c>
       <c r="G40">
-        <v>1136</v>
+        <v>3059.7</v>
       </c>
       <c r="H40">
-        <v>11950</v>
+        <v>10799</v>
       </c>
       <c r="I40">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="J40">
-        <v>3959</v>
+        <v>3098</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4007,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>615</v>
+        <v>912.9</v>
       </c>
       <c r="O40">
-        <v>6374</v>
+        <v>5337</v>
       </c>
       <c r="P40">
-        <v>4242</v>
+        <v>3098</v>
       </c>
       <c r="Q40">
-        <v>-190</v>
+        <v>352.1</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>41547</v>
       </c>
       <c r="S40">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>5576</v>
+        <v>5462</v>
       </c>
       <c r="U40">
-        <v>563</v>
+        <v>2286.1999999999998</v>
       </c>
       <c r="V40">
-        <v>426</v>
+        <v>861</v>
       </c>
       <c r="W40">
-        <v>-64</v>
+        <v>-23</v>
       </c>
       <c r="X40">
-        <v>-565</v>
+        <v>-235.5</v>
       </c>
       <c r="Y40">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40">
-        <v>190</v>
+        <v>234.1</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>41639</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-28</v>
+        <v>325.8</v>
       </c>
       <c r="D41">
-        <v>847</v>
+        <v>1326.3</v>
       </c>
       <c r="E41">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F41">
-        <v>94</v>
+        <v>593.79999999999995</v>
       </c>
       <c r="G41">
-        <v>1171</v>
+        <v>2630.1</v>
       </c>
       <c r="H41">
-        <v>11931</v>
+        <v>10678.1</v>
       </c>
       <c r="I41">
-        <v>424</v>
+        <v>169</v>
       </c>
       <c r="J41">
-        <v>3960</v>
+        <v>3098.1</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4090,2369 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>681</v>
+        <v>828.3</v>
       </c>
       <c r="O41">
-        <v>6456</v>
+        <v>5239.7</v>
       </c>
       <c r="P41">
-        <v>4248</v>
+        <v>3098.1</v>
       </c>
       <c r="Q41">
-        <v>-10</v>
+        <v>-575.4</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>41639</v>
       </c>
       <c r="S41">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T41">
-        <v>5475</v>
+        <v>5438.4</v>
       </c>
       <c r="U41">
-        <v>553</v>
+        <v>1710.8</v>
       </c>
       <c r="V41">
-        <v>223</v>
+        <v>37.5</v>
       </c>
       <c r="W41">
-        <v>-64</v>
+        <v>-57.2</v>
       </c>
       <c r="X41">
-        <v>-150</v>
+        <v>-315</v>
       </c>
       <c r="Y41">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="AA41">
-        <v>-28</v>
+        <v>325.8</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>41729</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>708.5</v>
+      </c>
+      <c r="D42">
+        <v>1132.5999999999999</v>
+      </c>
+      <c r="E42">
+        <v>215.7</v>
+      </c>
+      <c r="F42">
+        <v>442.8</v>
+      </c>
+      <c r="G42">
+        <v>4911.1000000000004</v>
+      </c>
+      <c r="H42">
+        <v>12475.5</v>
+      </c>
+      <c r="I42">
+        <v>583.5</v>
+      </c>
+      <c r="J42">
+        <v>4592.3</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1435.7</v>
+      </c>
+      <c r="O42">
+        <v>7167.2</v>
+      </c>
+      <c r="P42">
+        <v>4592.3</v>
+      </c>
+      <c r="Q42">
+        <v>1819.4</v>
+      </c>
+      <c r="R42">
+        <v>41729</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>5308.3</v>
+      </c>
+      <c r="U42">
+        <v>3530.2</v>
+      </c>
+      <c r="V42">
+        <v>750</v>
+      </c>
+      <c r="W42">
+        <v>-55.2</v>
+      </c>
+      <c r="X42">
+        <v>602.79999999999995</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>708.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="D43">
+        <v>1472.7</v>
+      </c>
+      <c r="E43">
+        <v>258.3</v>
+      </c>
+      <c r="F43">
+        <v>590.29999999999995</v>
+      </c>
+      <c r="G43">
+        <v>3405.7</v>
+      </c>
+      <c r="H43">
+        <v>11304.9</v>
+      </c>
+      <c r="I43">
+        <v>541.70000000000005</v>
+      </c>
+      <c r="J43">
+        <v>4592.3999999999996</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>720.3</v>
+      </c>
+      <c r="O43">
+        <v>6459.8</v>
+      </c>
+      <c r="P43">
+        <v>4592.3999999999996</v>
+      </c>
+      <c r="Q43">
+        <v>-1336.1</v>
+      </c>
+      <c r="R43">
+        <v>41820</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>4845.1000000000004</v>
+      </c>
+      <c r="U43">
+        <v>2194.1</v>
+      </c>
+      <c r="V43">
+        <v>-194.7</v>
+      </c>
+      <c r="W43">
+        <v>-52</v>
+      </c>
+      <c r="X43">
+        <v>-874.6</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>312.60000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>130.9</v>
+      </c>
+      <c r="D44">
+        <v>921.4</v>
+      </c>
+      <c r="E44">
+        <v>156.9</v>
+      </c>
+      <c r="F44">
+        <v>301.10000000000002</v>
+      </c>
+      <c r="G44">
+        <v>3338.7</v>
+      </c>
+      <c r="H44">
+        <v>11659.8</v>
+      </c>
+      <c r="I44">
+        <v>545.5</v>
+      </c>
+      <c r="J44">
+        <v>4592.3999999999996</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1048.8</v>
+      </c>
+      <c r="O44">
+        <v>6804.5</v>
+      </c>
+      <c r="P44">
+        <v>4592.3999999999996</v>
+      </c>
+      <c r="Q44">
+        <v>457.1</v>
+      </c>
+      <c r="R44">
+        <v>41912</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>4855.3</v>
+      </c>
+      <c r="U44">
+        <v>2651.2</v>
+      </c>
+      <c r="V44">
+        <v>621.6</v>
+      </c>
+      <c r="W44">
+        <v>-74.2</v>
+      </c>
+      <c r="X44">
+        <v>-82.7</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>5</v>
+      </c>
+      <c r="AA44">
+        <v>130.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>238.3</v>
+      </c>
+      <c r="D45">
+        <v>1216.5</v>
+      </c>
+      <c r="E45">
+        <v>185.7</v>
+      </c>
+      <c r="F45">
+        <v>444.3</v>
+      </c>
+      <c r="G45">
+        <v>2530.5</v>
+      </c>
+      <c r="H45">
+        <v>11254.2</v>
+      </c>
+      <c r="I45">
+        <v>65.8</v>
+      </c>
+      <c r="J45">
+        <v>4592.5</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>979.7</v>
+      </c>
+      <c r="O45">
+        <v>6681.7</v>
+      </c>
+      <c r="P45">
+        <v>4592.5</v>
+      </c>
+      <c r="Q45">
+        <v>-654.6</v>
+      </c>
+      <c r="R45">
+        <v>42004</v>
+      </c>
+      <c r="S45">
+        <v>2200</v>
+      </c>
+      <c r="T45">
+        <v>4572.5</v>
+      </c>
+      <c r="U45">
+        <v>1996.6</v>
+      </c>
+      <c r="V45">
+        <v>231.7</v>
+      </c>
+      <c r="W45">
+        <v>-74.3</v>
+      </c>
+      <c r="X45">
+        <v>-420.6</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>238.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>231</v>
+      </c>
+      <c r="D46">
+        <v>954</v>
+      </c>
+      <c r="E46">
+        <v>167.1</v>
+      </c>
+      <c r="F46">
+        <v>416</v>
+      </c>
+      <c r="G46">
+        <v>2379.6999999999998</v>
+      </c>
+      <c r="H46">
+        <v>11485.3</v>
+      </c>
+      <c r="I46">
+        <v>693.2</v>
+      </c>
+      <c r="J46">
+        <v>4592.5</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1311.3</v>
+      </c>
+      <c r="O46">
+        <v>7066.8</v>
+      </c>
+      <c r="P46">
+        <v>4592.5</v>
+      </c>
+      <c r="Q46">
+        <v>-218</v>
+      </c>
+      <c r="R46">
+        <v>42094</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>4418.5</v>
+      </c>
+      <c r="U46">
+        <v>1778.8</v>
+      </c>
+      <c r="V46">
+        <v>531</v>
+      </c>
+      <c r="W46">
+        <v>-72</v>
+      </c>
+      <c r="X46">
+        <v>-314</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>352</v>
+      </c>
+      <c r="D47">
+        <v>1311</v>
+      </c>
+      <c r="E47">
+        <v>194.9</v>
+      </c>
+      <c r="F47">
+        <v>686</v>
+      </c>
+      <c r="G47">
+        <v>1366.4</v>
+      </c>
+      <c r="H47">
+        <v>10998.4</v>
+      </c>
+      <c r="I47">
+        <v>701.2</v>
+      </c>
+      <c r="J47">
+        <v>4592.6000000000004</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>753.5</v>
+      </c>
+      <c r="O47">
+        <v>6522.6</v>
+      </c>
+      <c r="P47">
+        <v>4592.6000000000004</v>
+      </c>
+      <c r="Q47">
+        <v>-969</v>
+      </c>
+      <c r="R47">
+        <v>42185</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>4475.8</v>
+      </c>
+      <c r="U47">
+        <v>809.9</v>
+      </c>
+      <c r="V47">
+        <v>-32</v>
+      </c>
+      <c r="W47">
+        <v>-71</v>
+      </c>
+      <c r="X47">
+        <v>-366</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>13</v>
+      </c>
+      <c r="AA47">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>90</v>
+      </c>
+      <c r="D48">
+        <v>928</v>
+      </c>
+      <c r="E48">
+        <v>251.9</v>
+      </c>
+      <c r="F48">
+        <v>165</v>
+      </c>
+      <c r="G48">
+        <v>1764.2</v>
+      </c>
+      <c r="H48">
+        <v>12869.8</v>
+      </c>
+      <c r="I48">
+        <v>825.4</v>
+      </c>
+      <c r="J48">
+        <v>5592.6</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1273.5999999999999</v>
+      </c>
+      <c r="O48">
+        <v>8402.2999999999993</v>
+      </c>
+      <c r="P48">
+        <v>5592.6</v>
+      </c>
+      <c r="Q48">
+        <v>133</v>
+      </c>
+      <c r="R48">
+        <v>42277</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>4467.5</v>
+      </c>
+      <c r="U48">
+        <v>943.2</v>
+      </c>
+      <c r="V48">
+        <v>575</v>
+      </c>
+      <c r="W48">
+        <v>-69</v>
+      </c>
+      <c r="X48">
+        <v>859</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>1115</v>
+      </c>
+      <c r="E49">
+        <v>210</v>
+      </c>
+      <c r="F49">
+        <v>280</v>
+      </c>
+      <c r="G49">
+        <v>1127</v>
+      </c>
+      <c r="H49">
+        <v>12683</v>
+      </c>
+      <c r="I49">
+        <v>97</v>
+      </c>
+      <c r="J49">
+        <v>5537</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1215</v>
+      </c>
+      <c r="O49">
+        <v>8296</v>
+      </c>
+      <c r="P49">
+        <v>5537</v>
+      </c>
+      <c r="Q49">
+        <v>-657</v>
+      </c>
+      <c r="R49">
+        <v>42369</v>
+      </c>
+      <c r="S49">
+        <v>2800</v>
+      </c>
+      <c r="T49">
+        <v>4387</v>
+      </c>
+      <c r="U49">
+        <v>286</v>
+      </c>
+      <c r="V49">
+        <v>133</v>
+      </c>
+      <c r="W49">
+        <v>-70</v>
+      </c>
+      <c r="X49">
+        <v>-102</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>26</v>
+      </c>
+      <c r="D50">
+        <v>1004</v>
+      </c>
+      <c r="E50">
+        <v>262</v>
+      </c>
+      <c r="F50">
+        <v>217</v>
+      </c>
+      <c r="G50">
+        <v>3520</v>
+      </c>
+      <c r="H50">
+        <v>15581</v>
+      </c>
+      <c r="I50">
+        <v>880</v>
+      </c>
+      <c r="J50">
+        <v>5539</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>-150</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1273</v>
+      </c>
+      <c r="O50">
+        <v>8387</v>
+      </c>
+      <c r="P50">
+        <v>5539</v>
+      </c>
+      <c r="Q50">
+        <v>2403</v>
+      </c>
+      <c r="R50">
+        <v>42460</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>7194</v>
+      </c>
+      <c r="U50">
+        <v>2689</v>
+      </c>
+      <c r="V50">
+        <v>346</v>
+      </c>
+      <c r="W50">
+        <v>-70</v>
+      </c>
+      <c r="X50">
+        <v>2717</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>47</v>
+      </c>
+      <c r="D51">
+        <v>1134</v>
+      </c>
+      <c r="E51">
+        <v>239</v>
+      </c>
+      <c r="F51">
+        <v>527</v>
+      </c>
+      <c r="G51">
+        <v>3374</v>
+      </c>
+      <c r="H51">
+        <v>15762</v>
+      </c>
+      <c r="I51">
+        <v>742</v>
+      </c>
+      <c r="J51">
+        <v>5540</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>773</v>
+      </c>
+      <c r="O51">
+        <v>8597</v>
+      </c>
+      <c r="P51">
+        <v>5540</v>
+      </c>
+      <c r="Q51">
+        <v>-681</v>
+      </c>
+      <c r="R51">
+        <v>42551</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>7165</v>
+      </c>
+      <c r="U51">
+        <v>2008</v>
+      </c>
+      <c r="V51">
+        <v>100</v>
+      </c>
+      <c r="W51">
+        <v>-70</v>
+      </c>
+      <c r="X51">
+        <v>-82</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>-30</v>
+      </c>
+      <c r="D52">
+        <v>680</v>
+      </c>
+      <c r="E52">
+        <v>207</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>2931</v>
+      </c>
+      <c r="H52">
+        <v>15632</v>
+      </c>
+      <c r="I52">
+        <v>843</v>
+      </c>
+      <c r="J52">
+        <v>5540</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>966</v>
+      </c>
+      <c r="O52">
+        <v>8652</v>
+      </c>
+      <c r="P52">
+        <v>5540</v>
+      </c>
+      <c r="Q52">
+        <v>-454</v>
+      </c>
+      <c r="R52">
+        <v>42643</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>6980</v>
+      </c>
+      <c r="U52">
+        <v>1554</v>
+      </c>
+      <c r="V52">
+        <v>145</v>
+      </c>
+      <c r="W52">
+        <v>-69</v>
+      </c>
+      <c r="X52">
+        <v>-166</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>-320</v>
+      </c>
+      <c r="D53">
+        <v>867</v>
+      </c>
+      <c r="E53">
+        <v>227</v>
+      </c>
+      <c r="F53">
+        <v>94</v>
+      </c>
+      <c r="G53">
+        <v>2655</v>
+      </c>
+      <c r="H53">
+        <v>15131</v>
+      </c>
+      <c r="I53">
+        <v>81</v>
+      </c>
+      <c r="J53">
+        <v>5778</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>686</v>
+      </c>
+      <c r="O53">
+        <v>8639</v>
+      </c>
+      <c r="P53">
+        <v>5778</v>
+      </c>
+      <c r="Q53">
+        <v>-390</v>
+      </c>
+      <c r="R53">
+        <v>42735</v>
+      </c>
+      <c r="S53">
+        <v>2900</v>
+      </c>
+      <c r="T53">
+        <v>6492</v>
+      </c>
+      <c r="U53">
+        <v>1164</v>
+      </c>
+      <c r="V53">
+        <v>26</v>
+      </c>
+      <c r="W53">
+        <v>-71</v>
+      </c>
+      <c r="X53">
+        <v>-30</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>-320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-23</v>
+      </c>
+      <c r="D54">
+        <v>1037</v>
+      </c>
+      <c r="E54">
+        <v>252</v>
+      </c>
+      <c r="F54">
+        <v>107</v>
+      </c>
+      <c r="G54">
+        <v>2805</v>
+      </c>
+      <c r="H54">
+        <v>15185</v>
+      </c>
+      <c r="I54">
+        <v>657</v>
+      </c>
+      <c r="J54">
+        <v>5780</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>853</v>
+      </c>
+      <c r="O54">
+        <v>8802</v>
+      </c>
+      <c r="P54">
+        <v>5780</v>
+      </c>
+      <c r="Q54">
+        <v>147</v>
+      </c>
+      <c r="R54">
+        <v>42825</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>6383</v>
+      </c>
+      <c r="U54">
+        <v>1312</v>
+      </c>
+      <c r="V54">
+        <v>356</v>
+      </c>
+      <c r="W54">
+        <v>-70</v>
+      </c>
+      <c r="X54">
+        <v>-124</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>1124</v>
+      </c>
+      <c r="E55">
+        <v>282</v>
+      </c>
+      <c r="F55">
+        <v>173</v>
+      </c>
+      <c r="G55">
+        <v>2675</v>
+      </c>
+      <c r="H55">
+        <v>14936</v>
+      </c>
+      <c r="I55">
+        <v>616</v>
+      </c>
+      <c r="J55">
+        <v>4986</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1441</v>
+      </c>
+      <c r="O55">
+        <v>8546</v>
+      </c>
+      <c r="P55">
+        <v>5783</v>
+      </c>
+      <c r="Q55">
+        <v>689</v>
+      </c>
+      <c r="R55">
+        <v>42916</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>6390</v>
+      </c>
+      <c r="U55">
+        <v>2001</v>
+      </c>
+      <c r="V55">
+        <v>831</v>
+      </c>
+      <c r="W55">
+        <v>-70</v>
+      </c>
+      <c r="X55">
+        <v>-75</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>15</v>
+      </c>
+      <c r="AA55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>-87</v>
+      </c>
+      <c r="D56">
+        <v>870</v>
+      </c>
+      <c r="E56">
+        <v>279</v>
+      </c>
+      <c r="F56">
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>2651</v>
+      </c>
+      <c r="H56">
+        <v>14857</v>
+      </c>
+      <c r="I56">
+        <v>635</v>
+      </c>
+      <c r="J56">
+        <v>4988</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1551</v>
+      </c>
+      <c r="O56">
+        <v>8617</v>
+      </c>
+      <c r="P56">
+        <v>5786</v>
+      </c>
+      <c r="Q56">
+        <v>-13</v>
+      </c>
+      <c r="R56">
+        <v>43008</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>6240</v>
+      </c>
+      <c r="U56">
+        <v>1992</v>
+      </c>
+      <c r="V56">
+        <v>214</v>
+      </c>
+      <c r="W56">
+        <v>-70</v>
+      </c>
+      <c r="X56">
+        <v>-136</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>6</v>
+      </c>
+      <c r="AA56">
+        <v>-87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>465</v>
+      </c>
+      <c r="D57">
+        <v>1099</v>
+      </c>
+      <c r="E57">
+        <v>297</v>
+      </c>
+      <c r="F57">
+        <v>143</v>
+      </c>
+      <c r="G57">
+        <v>1465</v>
+      </c>
+      <c r="H57">
+        <v>13463</v>
+      </c>
+      <c r="I57">
+        <v>99</v>
+      </c>
+      <c r="J57">
+        <v>4692</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>580</v>
+      </c>
+      <c r="O57">
+        <v>6779</v>
+      </c>
+      <c r="P57">
+        <v>4692</v>
+      </c>
+      <c r="Q57">
+        <v>-1157</v>
+      </c>
+      <c r="R57">
+        <v>43100</v>
+      </c>
+      <c r="S57">
+        <v>2900</v>
+      </c>
+      <c r="T57">
+        <v>6684</v>
+      </c>
+      <c r="U57">
+        <v>835</v>
+      </c>
+      <c r="V57">
+        <v>230</v>
+      </c>
+      <c r="W57">
+        <v>-70</v>
+      </c>
+      <c r="X57">
+        <v>-1229</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>18</v>
+      </c>
+      <c r="AA57">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>63</v>
+      </c>
+      <c r="D58">
+        <v>957</v>
+      </c>
+      <c r="E58">
+        <v>247</v>
+      </c>
+      <c r="F58">
+        <v>190</v>
+      </c>
+      <c r="G58">
+        <v>1660</v>
+      </c>
+      <c r="H58">
+        <v>13522</v>
+      </c>
+      <c r="I58">
+        <v>447</v>
+      </c>
+      <c r="J58">
+        <v>4693</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>626</v>
+      </c>
+      <c r="O58">
+        <v>6857</v>
+      </c>
+      <c r="P58">
+        <v>4693</v>
+      </c>
+      <c r="Q58">
+        <v>101</v>
+      </c>
+      <c r="R58">
+        <v>43190</v>
+      </c>
+      <c r="S58">
+        <v>3000</v>
+      </c>
+      <c r="T58">
+        <v>6665</v>
+      </c>
+      <c r="U58">
+        <v>936</v>
+      </c>
+      <c r="V58">
+        <v>282</v>
+      </c>
+      <c r="W58">
+        <v>-70</v>
+      </c>
+      <c r="X58">
+        <v>-127</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>4</v>
+      </c>
+      <c r="AA58">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>148</v>
+      </c>
+      <c r="D59">
+        <v>1300</v>
+      </c>
+      <c r="E59">
+        <v>338</v>
+      </c>
+      <c r="F59">
+        <v>312</v>
+      </c>
+      <c r="G59">
+        <v>1348</v>
+      </c>
+      <c r="H59">
+        <v>12987</v>
+      </c>
+      <c r="I59">
+        <v>429</v>
+      </c>
+      <c r="J59">
+        <v>4695</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>482</v>
+      </c>
+      <c r="O59">
+        <v>6665</v>
+      </c>
+      <c r="P59">
+        <v>4695</v>
+      </c>
+      <c r="Q59">
+        <v>-208</v>
+      </c>
+      <c r="R59">
+        <v>43281</v>
+      </c>
+      <c r="S59">
+        <v>3000</v>
+      </c>
+      <c r="T59">
+        <v>6322</v>
+      </c>
+      <c r="U59">
+        <v>728</v>
+      </c>
+      <c r="V59">
+        <v>316</v>
+      </c>
+      <c r="W59">
+        <v>-70</v>
+      </c>
+      <c r="X59">
+        <v>-456</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>6</v>
+      </c>
+      <c r="AA59">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="D60">
+        <v>1040</v>
+      </c>
+      <c r="E60">
+        <v>273</v>
+      </c>
+      <c r="F60">
+        <v>173</v>
+      </c>
+      <c r="G60">
+        <v>1597</v>
+      </c>
+      <c r="H60">
+        <v>13156</v>
+      </c>
+      <c r="I60">
+        <v>467</v>
+      </c>
+      <c r="J60">
+        <v>4697</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>788</v>
+      </c>
+      <c r="O60">
+        <v>6993</v>
+      </c>
+      <c r="P60">
+        <v>4697</v>
+      </c>
+      <c r="Q60">
+        <v>294</v>
+      </c>
+      <c r="R60">
+        <v>43373</v>
+      </c>
+      <c r="S60">
+        <v>3000</v>
+      </c>
+      <c r="T60">
+        <v>6163</v>
+      </c>
+      <c r="U60">
+        <v>1022</v>
+      </c>
+      <c r="V60">
+        <v>645</v>
+      </c>
+      <c r="W60">
+        <v>-70</v>
+      </c>
+      <c r="X60">
+        <v>-231</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>49</v>
+      </c>
+      <c r="D61">
+        <v>1132</v>
+      </c>
+      <c r="E61">
+        <v>226</v>
+      </c>
+      <c r="F61">
+        <v>242</v>
+      </c>
+      <c r="G61">
+        <v>1274</v>
+      </c>
+      <c r="H61">
+        <v>12661</v>
+      </c>
+      <c r="I61">
+        <v>101</v>
+      </c>
+      <c r="J61">
+        <v>4698</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>705</v>
+      </c>
+      <c r="O61">
+        <v>6930</v>
+      </c>
+      <c r="P61">
+        <v>4698</v>
+      </c>
+      <c r="Q61">
+        <v>-340</v>
+      </c>
+      <c r="R61">
+        <v>43465</v>
+      </c>
+      <c r="S61">
+        <v>2900</v>
+      </c>
+      <c r="T61">
+        <v>5731</v>
+      </c>
+      <c r="U61">
+        <v>682</v>
+      </c>
+      <c r="V61">
+        <v>254</v>
+      </c>
+      <c r="W61">
+        <v>-70</v>
+      </c>
+      <c r="X61">
+        <v>-456</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B62" t="s">
         <v>87</v>
       </c>
-      <c r="D42">
+      <c r="C62">
+        <v>90</v>
+      </c>
+      <c r="D62">
+        <v>1001</v>
+      </c>
+      <c r="E62">
+        <v>264</v>
+      </c>
+      <c r="F62">
+        <v>220</v>
+      </c>
+      <c r="G62">
+        <v>1412</v>
+      </c>
+      <c r="H62">
+        <v>12942</v>
+      </c>
+      <c r="I62">
+        <v>432</v>
+      </c>
+      <c r="J62">
+        <v>4700</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>826</v>
+      </c>
+      <c r="O62">
+        <v>7272</v>
+      </c>
+      <c r="P62">
+        <v>4988</v>
+      </c>
+      <c r="Q62">
+        <v>-11</v>
+      </c>
+      <c r="R62">
+        <v>43555</v>
+      </c>
+      <c r="S62">
+        <v>3000</v>
+      </c>
+      <c r="T62">
+        <v>5670</v>
+      </c>
+      <c r="U62">
+        <v>671</v>
+      </c>
+      <c r="V62">
+        <v>306</v>
+      </c>
+      <c r="W62">
+        <v>-67</v>
+      </c>
+      <c r="X62">
+        <v>-242</v>
+      </c>
+      <c r="Y62">
+        <v>203</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>283</v>
+      </c>
+      <c r="D63">
+        <v>1502</v>
+      </c>
+      <c r="E63">
+        <v>313</v>
+      </c>
+      <c r="F63">
+        <v>499</v>
+      </c>
+      <c r="G63">
+        <v>1488</v>
+      </c>
+      <c r="H63">
+        <v>12863</v>
+      </c>
+      <c r="I63">
+        <v>416</v>
+      </c>
+      <c r="J63">
+        <v>4203</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1042</v>
+      </c>
+      <c r="O63">
+        <v>7045</v>
+      </c>
+      <c r="P63">
+        <v>4987</v>
+      </c>
+      <c r="Q63">
+        <v>187</v>
+      </c>
+      <c r="R63">
+        <v>43646</v>
+      </c>
+      <c r="S63">
+        <v>3000</v>
+      </c>
+      <c r="T63">
+        <v>5818</v>
+      </c>
+      <c r="U63">
+        <v>858</v>
+      </c>
+      <c r="V63">
+        <v>387</v>
+      </c>
+      <c r="W63">
+        <v>-66</v>
+      </c>
+      <c r="X63">
+        <v>-184</v>
+      </c>
+      <c r="Y63">
+        <v>197</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>65</v>
+      </c>
+      <c r="D64">
+        <v>1038</v>
+      </c>
+      <c r="E64">
+        <v>311</v>
+      </c>
+      <c r="F64">
+        <v>228</v>
+      </c>
+      <c r="G64">
+        <v>1669</v>
+      </c>
+      <c r="H64">
+        <v>12902</v>
+      </c>
+      <c r="I64">
+        <v>459</v>
+      </c>
+      <c r="J64">
+        <v>4204</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1245</v>
+      </c>
+      <c r="O64">
+        <v>7221</v>
+      </c>
+      <c r="P64">
+        <v>4971</v>
+      </c>
+      <c r="Q64">
+        <v>161</v>
+      </c>
+      <c r="R64">
+        <v>43738</v>
+      </c>
+      <c r="S64">
+        <v>3000</v>
+      </c>
+      <c r="T64">
+        <v>5681</v>
+      </c>
+      <c r="U64">
+        <v>1019</v>
+      </c>
+      <c r="V64">
+        <v>510</v>
+      </c>
+      <c r="W64">
+        <v>-67</v>
+      </c>
+      <c r="X64">
+        <v>-227</v>
+      </c>
+      <c r="Y64">
+        <v>181</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>55</v>
+      </c>
+      <c r="D65">
+        <v>1049</v>
+      </c>
+      <c r="E65">
+        <v>229</v>
+      </c>
+      <c r="F65">
+        <v>227</v>
+      </c>
+      <c r="G65">
+        <v>974</v>
+      </c>
+      <c r="H65">
+        <v>12172</v>
+      </c>
+      <c r="I65">
+        <v>78</v>
+      </c>
+      <c r="J65">
+        <v>3957</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>665</v>
+      </c>
+      <c r="O65">
+        <v>6535</v>
+      </c>
+      <c r="P65">
+        <v>4240</v>
+      </c>
+      <c r="Q65">
+        <v>-732</v>
+      </c>
+      <c r="R65">
+        <v>43830</v>
+      </c>
+      <c r="S65">
+        <v>3000</v>
+      </c>
+      <c r="T65">
+        <v>5637</v>
+      </c>
+      <c r="U65">
+        <v>287</v>
+      </c>
+      <c r="V65">
+        <v>302</v>
+      </c>
+      <c r="W65">
+        <v>-65</v>
+      </c>
+      <c r="X65">
+        <v>-930</v>
+      </c>
+      <c r="Y65">
+        <v>193</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>68</v>
+      </c>
+      <c r="D66">
+        <v>971</v>
+      </c>
+      <c r="E66">
+        <v>251</v>
+      </c>
+      <c r="F66">
+        <v>204</v>
+      </c>
+      <c r="G66">
+        <v>1480</v>
+      </c>
+      <c r="H66">
+        <v>12441</v>
+      </c>
+      <c r="I66">
+        <v>378</v>
+      </c>
+      <c r="J66">
+        <v>3958</v>
+      </c>
+      <c r="K66">
+        <v>500</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1235</v>
+      </c>
+      <c r="O66">
+        <v>7038</v>
+      </c>
+      <c r="P66">
+        <v>4749</v>
+      </c>
+      <c r="Q66">
+        <v>466</v>
+      </c>
+      <c r="R66">
+        <v>43921</v>
+      </c>
+      <c r="S66">
+        <v>3000</v>
+      </c>
+      <c r="T66">
+        <v>5403</v>
+      </c>
+      <c r="U66">
+        <v>753</v>
+      </c>
+      <c r="V66">
+        <v>292</v>
+      </c>
+      <c r="W66">
+        <v>-65</v>
+      </c>
+      <c r="X66">
+        <v>242</v>
+      </c>
+      <c r="Y66">
+        <v>197</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>190</v>
+      </c>
+      <c r="D67">
+        <v>1204</v>
+      </c>
+      <c r="E67">
+        <v>250</v>
+      </c>
+      <c r="F67">
+        <v>334</v>
+      </c>
+      <c r="G67">
+        <v>1136</v>
+      </c>
+      <c r="H67">
+        <v>11950</v>
+      </c>
+      <c r="I67">
+        <v>389</v>
+      </c>
+      <c r="J67">
+        <v>3959</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>615</v>
+      </c>
+      <c r="O67">
+        <v>6374</v>
+      </c>
+      <c r="P67">
+        <v>4242</v>
+      </c>
+      <c r="Q67">
+        <v>-190</v>
+      </c>
+      <c r="R67">
+        <v>44012</v>
+      </c>
+      <c r="S67">
+        <v>3000</v>
+      </c>
+      <c r="T67">
+        <v>5576</v>
+      </c>
+      <c r="U67">
+        <v>563</v>
+      </c>
+      <c r="V67">
+        <v>426</v>
+      </c>
+      <c r="W67">
+        <v>-64</v>
+      </c>
+      <c r="X67">
+        <v>-565</v>
+      </c>
+      <c r="Y67">
+        <v>191</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>-28</v>
+      </c>
+      <c r="D68">
+        <v>847</v>
+      </c>
+      <c r="E68">
+        <v>234</v>
+      </c>
+      <c r="F68">
+        <v>94</v>
+      </c>
+      <c r="G68">
+        <v>1171</v>
+      </c>
+      <c r="H68">
+        <v>11931</v>
+      </c>
+      <c r="I68">
+        <v>424</v>
+      </c>
+      <c r="J68">
+        <v>3960</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>681</v>
+      </c>
+      <c r="O68">
+        <v>6456</v>
+      </c>
+      <c r="P68">
+        <v>4248</v>
+      </c>
+      <c r="Q68">
+        <v>-10</v>
+      </c>
+      <c r="R68">
+        <v>44104</v>
+      </c>
+      <c r="S68">
+        <v>3000</v>
+      </c>
+      <c r="T68">
+        <v>5475</v>
+      </c>
+      <c r="U68">
+        <v>553</v>
+      </c>
+      <c r="V68">
+        <v>223</v>
+      </c>
+      <c r="W68">
+        <v>-64</v>
+      </c>
+      <c r="X68">
+        <v>-150</v>
+      </c>
+      <c r="Y68">
+        <v>195</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>87</v>
+      </c>
+      <c r="D69">
         <v>1102</v>
       </c>
-      <c r="E42">
+      <c r="E69">
         <v>256</v>
       </c>
-      <c r="F42">
+      <c r="F69">
         <v>180</v>
       </c>
-      <c r="G42">
+      <c r="G69">
         <v>1367</v>
       </c>
-      <c r="H42">
+      <c r="H69">
         <v>12023</v>
       </c>
-      <c r="I42">
+      <c r="I69">
         <v>85</v>
       </c>
-      <c r="J42">
+      <c r="J69">
         <v>3712</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
         <v>906</v>
       </c>
-      <c r="O42">
+      <c r="O69">
         <v>6420</v>
       </c>
-      <c r="P42">
+      <c r="P69">
         <v>4223</v>
       </c>
-      <c r="Q42">
+      <c r="Q69">
         <v>130</v>
       </c>
-      <c r="R42">
+      <c r="R69">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S69">
         <v>2970</v>
       </c>
-      <c r="T42">
+      <c r="T69">
         <v>5603</v>
       </c>
-      <c r="U42">
+      <c r="U69">
         <v>683</v>
       </c>
-      <c r="V42">
+      <c r="V69">
         <v>290</v>
       </c>
-      <c r="W42">
+      <c r="W69">
         <v>-65</v>
       </c>
-      <c r="X42">
+      <c r="X69">
         <v>-69</v>
       </c>
-      <c r="Y42">
+      <c r="Y69">
         <v>174</v>
       </c>
-      <c r="Z42">
+      <c r="Z69">
         <v>5</v>
       </c>
-      <c r="AA42">
+      <c r="AA69">
         <v>87</v>
       </c>
     </row>
